--- a/Prescriptive Analytics/Keystone.xlsx
+++ b/Prescriptive Analytics/Keystone.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr date1904="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="29005"/>
+  <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Savin\Desktop\Operations Analytics MOOC\Week 2\Session 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/japjot/Desktop/cs/coursera/op-analytics/Prescriptive Analytics/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="12380" windowHeight="9320" tabRatio="756"/>
+    <workbookView xWindow="2160" yWindow="900" windowWidth="24480" windowHeight="14640" tabRatio="756"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,15 @@
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -65,7 +73,7 @@
     <author>Savin</author>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0" shapeId="0">
+    <comment ref="F3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -79,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E12" authorId="0" shapeId="0">
+    <comment ref="E12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -93,7 +101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0">
+    <comment ref="B15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -180,7 +188,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;0.00"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Geneva"/>
@@ -188,6 +196,7 @@
     <font>
       <sz val="10"/>
       <name val="Geneva"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -257,11 +266,11 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -270,7 +279,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -278,17 +287,17 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -298,7 +307,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -306,12 +315,12 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -320,33 +329,33 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,9 +571,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -597,9 +606,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -803,26 +812,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="135" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6328125" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29" style="1" customWidth="1"/>
-    <col min="2" max="3" width="12.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="10.7265625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.6328125" style="1"/>
+    <col min="2" max="3" width="12.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="10.7109375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>13</v>
       </c>
@@ -830,23 +839,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16" thickBot="1">
+    <row r="2" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="16" thickBot="1">
+    <row r="3" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="E3" s="12" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="18">
         <f>SUMPRODUCT(B6:D8,B12:D14)</f>
-        <v>7485.000014473545</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>8334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
@@ -858,7 +867,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
@@ -875,7 +884,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
@@ -892,7 +901,7 @@
       <c r="G6" s="10"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
@@ -908,7 +917,7 @@
       <c r="F7" s="5"/>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
@@ -924,7 +933,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -932,7 +941,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -941,7 +950,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="16" thickBot="1">
+    <row r="11" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>1</v>
       </c>
@@ -962,22 +971,22 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="19">
-        <v>14.999999999999996</v>
+        <v>5</v>
       </c>
       <c r="C12" s="20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D12" s="21">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E12" s="11">
         <f>SUM(B12:D12)</f>
-        <v>14.999999999999996</v>
+        <v>15</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>14</v>
@@ -987,22 +996,22 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="22">
-        <v>17.00000042940345</v>
+        <v>6</v>
       </c>
       <c r="C13" s="23">
-        <v>2.9999997408955572</v>
+        <v>7</v>
       </c>
       <c r="D13" s="24">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E13" s="11">
         <f>SUM(B13:D13)</f>
-        <v>20.000000170299007</v>
+        <v>20</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>14</v>
@@ -1012,22 +1021,22 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="16" thickBot="1">
+    <row r="14" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="25">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C14" s="26">
-        <v>10.00000020669345</v>
+        <v>10</v>
       </c>
       <c r="D14" s="27">
-        <v>19.999999793306543</v>
+        <v>10</v>
       </c>
       <c r="E14" s="11">
         <f>SUM(B14:D14)</f>
-        <v>29.999999999999993</v>
+        <v>30</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>14</v>
@@ -1037,24 +1046,24 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="6">
         <f>SUM(B12:B14)</f>
-        <v>32.000000429403443</v>
+        <v>21</v>
       </c>
       <c r="C15" s="6">
         <f>SUM(C12:C14)</f>
-        <v>12.999999947589007</v>
+        <v>22</v>
       </c>
       <c r="D15" s="6">
         <f>SUM(D12:D14)</f>
-        <v>19.999999793306543</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="16" t="s">
         <v>17</v>
@@ -1067,7 +1076,7 @@
       </c>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
         <v>6</v>
       </c>
@@ -1082,47 +1091,47 @@
       </c>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
